--- a/DateBase/orders/Nha Thu_2025-11-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-29.xlsx
@@ -527,6 +527,9 @@
       <c r="C11" t="str">
         <v>347_金边万年青_undefined_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -588,7 +591,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0335211015101010100</v>
+        <v>0335211015101010101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-29.xlsx
@@ -528,7 +528,7 @@
         <v>347_金边万年青_undefined_undefined_1bunch</v>
       </c>
       <c r="F11" t="str">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -591,7 +591,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0335211015101010101</v>
+        <v>03352110151010101011</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-29.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -531,9 +531,93 @@
         <v>11</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>123_绣球秋红_Hydrangea_Hydrangea L._1stem</v>
+      </c>
+      <c r="F12" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>104_绣球重瓣紫_Hydrangea Purple D_Hydrangea L._1stem</v>
+      </c>
+      <c r="F13" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="C15" t="str" xml:space="preserve">
+        <v xml:space="preserve">345_天竺少女_Cryptomeria
+Kashiwaba_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>4</v>
+      </c>
+      <c r="C16" t="str">
+        <v>475_诺贝松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>431_小米果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>5</v>
+      </c>
+      <c r="C18" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -591,7 +675,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>03352110151010101011</v>
+        <v>03352110151010101011151530153020149150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-29.xlsx
@@ -614,6 +614,9 @@
       <c r="C21" t="str">
         <v>411_紫罗兰白_violet white_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -675,7 +678,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>03352110151010101011151530153020149150</v>
+        <v>033521101510101010111515301530201491520</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-29.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -618,9 +618,87 @@
         <v>20</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>6</v>
+      </c>
+      <c r="C23" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>718_银莲白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>691_银莲紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>719_银莲红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>683_锦鲤红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>7</v>
+      </c>
+      <c r="C30" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L30"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -678,7 +756,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>033521101510101010111515301530201491520</v>
+        <v>033521101510101010111515301530201491520152015155551015</v>
       </c>
     </row>
   </sheetData>
